--- a/results/ncbc_s10/TM_p6/pred_waveforms_R.xlsx
+++ b/results/ncbc_s10/TM_p6/pred_waveforms_R.xlsx
@@ -434,494 +434,820 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="AM1" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="AN1" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="AO1" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="AP1" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ1" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="AR1" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="AS1" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="AT1" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="AU1" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="AV1" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="AW1" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="AX1" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="AY1" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="AZ1" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA1" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="BB1" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="BC1" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="BD1" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="BE1" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="BF1" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="BG1" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="BH1" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="BI1" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="BJ1" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="BK1" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="BL1" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="BM1" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="BN1" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="BO1" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="BP1" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="BQ1" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="BR1" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="BS1" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="BT1" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="BU1" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="BV1" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="BW1" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="BX1" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="BY1" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="BZ1" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="CA1" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="CB1" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="CC1" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="CD1" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="CE1" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="CF1" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="CG1" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="CH1" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="CI1" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="CJ1" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="CK1" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="CL1" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="CM1" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="CN1" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="CO1" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="CP1" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="CQ1" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="CR1" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="CS1" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="CT1" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="CU1" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="CV1" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="CW1" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="CX1" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="CY1" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="CZ1" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="DA1" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="DB1" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="DC1" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="DD1" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="DE1" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="DF1" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="DG1" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="DH1" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="DI1" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="DJ1" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="DK1" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="DL1" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="DM1" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="DN1" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="DO1" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="DP1" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="DQ1" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="DR1" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="DS1" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="DT1" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="DU1" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="DV1" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="DW1" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="DX1" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="DY1" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="DZ1" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="EA1" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="EB1" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="EC1" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="ED1" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="EE1" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="EF1" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="EG1" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="EH1" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="EI1" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="EJ1" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="EK1" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="EL1" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="EM1" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="EN1" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="EO1" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="EP1" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="EQ1" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="ER1" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="ES1" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="ET1" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="EU1" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="EV1" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="EW1" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="EX1" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="EY1" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="EZ1" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="FA1" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="FB1" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="FC1" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="FD1" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="FE1" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="FF1" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="FG1" s="1" t="n">
-        <v>162</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>step_1</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>step_2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>step_3</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>step_4</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>step_5</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>step_6</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>step_7</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>step_8</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>step_9</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>step_10</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>step_11</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>step_12</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>step_13</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>step_14</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>step_15</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>step_16</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>step_17</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>step_18</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>step_19</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>step_20</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>step_21</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>step_22</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>step_23</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>step_24</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>step_25</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>step_26</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>step_27</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>step_28</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>step_29</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>step_30</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>step_31</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>step_32</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>step_33</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>step_34</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>step_35</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>step_36</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>step_37</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>step_38</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>step_39</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>step_40</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>step_41</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>step_42</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>step_43</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>step_44</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>step_45</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>step_46</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>step_47</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>step_48</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>step_49</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>step_50</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>step_51</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>step_52</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>step_53</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>step_54</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>step_55</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>step_56</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>step_57</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>step_58</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>step_59</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>step_60</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>step_61</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>step_62</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>step_63</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>step_64</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>step_65</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>step_66</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>step_67</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>step_68</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>step_69</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>step_70</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>step_71</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>step_72</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>step_73</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>step_74</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>step_75</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>step_76</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>step_77</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>step_78</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>step_79</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>step_80</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>step_81</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>step_82</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>step_83</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>step_84</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>step_85</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>step_86</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>step_87</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>step_88</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>step_89</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>step_90</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>step_91</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>step_92</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>step_93</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>step_94</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>step_95</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>step_96</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>step_97</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>step_98</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>step_99</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>step_100</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>step_101</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>step_102</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>step_103</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>step_104</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>step_105</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>step_106</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>step_107</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>step_108</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>step_109</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>step_110</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>step_111</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>step_112</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>step_113</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>step_114</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>step_115</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>step_116</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>step_117</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>step_118</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>step_119</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>step_120</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>step_121</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>step_122</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>step_123</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>step_124</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>step_125</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>step_126</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr">
+        <is>
+          <t>step_127</t>
+        </is>
+      </c>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>step_128</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr">
+        <is>
+          <t>step_129</t>
+        </is>
+      </c>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>step_130</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>step_131</t>
+        </is>
+      </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>step_132</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr">
+        <is>
+          <t>step_133</t>
+        </is>
+      </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>step_134</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>step_135</t>
+        </is>
+      </c>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>step_136</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr">
+        <is>
+          <t>step_137</t>
+        </is>
+      </c>
+      <c r="EH1" s="1" t="inlineStr">
+        <is>
+          <t>step_138</t>
+        </is>
+      </c>
+      <c r="EI1" s="1" t="inlineStr">
+        <is>
+          <t>step_139</t>
+        </is>
+      </c>
+      <c r="EJ1" s="1" t="inlineStr">
+        <is>
+          <t>step_140</t>
+        </is>
+      </c>
+      <c r="EK1" s="1" t="inlineStr">
+        <is>
+          <t>step_141</t>
+        </is>
+      </c>
+      <c r="EL1" s="1" t="inlineStr">
+        <is>
+          <t>step_142</t>
+        </is>
+      </c>
+      <c r="EM1" s="1" t="inlineStr">
+        <is>
+          <t>step_143</t>
+        </is>
+      </c>
+      <c r="EN1" s="1" t="inlineStr">
+        <is>
+          <t>step_144</t>
+        </is>
+      </c>
+      <c r="EO1" s="1" t="inlineStr">
+        <is>
+          <t>step_145</t>
+        </is>
+      </c>
+      <c r="EP1" s="1" t="inlineStr">
+        <is>
+          <t>step_146</t>
+        </is>
+      </c>
+      <c r="EQ1" s="1" t="inlineStr">
+        <is>
+          <t>step_147</t>
+        </is>
+      </c>
+      <c r="ER1" s="1" t="inlineStr">
+        <is>
+          <t>step_148</t>
+        </is>
+      </c>
+      <c r="ES1" s="1" t="inlineStr">
+        <is>
+          <t>step_149</t>
+        </is>
+      </c>
+      <c r="ET1" s="1" t="inlineStr">
+        <is>
+          <t>step_150</t>
+        </is>
+      </c>
+      <c r="EU1" s="1" t="inlineStr">
+        <is>
+          <t>step_151</t>
+        </is>
+      </c>
+      <c r="EV1" s="1" t="inlineStr">
+        <is>
+          <t>step_152</t>
+        </is>
+      </c>
+      <c r="EW1" s="1" t="inlineStr">
+        <is>
+          <t>step_153</t>
+        </is>
+      </c>
+      <c r="EX1" s="1" t="inlineStr">
+        <is>
+          <t>step_154</t>
+        </is>
+      </c>
+      <c r="EY1" s="1" t="inlineStr">
+        <is>
+          <t>step_155</t>
+        </is>
+      </c>
+      <c r="EZ1" s="1" t="inlineStr">
+        <is>
+          <t>step_156</t>
+        </is>
+      </c>
+      <c r="FA1" s="1" t="inlineStr">
+        <is>
+          <t>step_157</t>
+        </is>
+      </c>
+      <c r="FB1" s="1" t="inlineStr">
+        <is>
+          <t>step_158</t>
+        </is>
+      </c>
+      <c r="FC1" s="1" t="inlineStr">
+        <is>
+          <t>step_159</t>
+        </is>
+      </c>
+      <c r="FD1" s="1" t="inlineStr">
+        <is>
+          <t>step_160</t>
+        </is>
+      </c>
+      <c r="FE1" s="1" t="inlineStr">
+        <is>
+          <t>step_161</t>
+        </is>
+      </c>
+      <c r="FF1" s="1" t="inlineStr">
+        <is>
+          <t>step_162</t>
+        </is>
+      </c>
+      <c r="FG1" s="1" t="inlineStr">
+        <is>
+          <t>step_163</t>
+        </is>
       </c>
     </row>
     <row r="2">
